--- a/Exercise/data/combined_data.xlsx
+++ b/Exercise/data/combined_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Quality Indicators" sheetId="3" r:id="rId1"/>
     <sheet name="Combined Data" sheetId="9" r:id="rId2"/>
     <sheet name="Spend Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Pivot Table" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_combined_data.xlsxQuality_Indicators1" hidden="1">Quality_Indicators[]</definedName>
@@ -18,6 +19,9 @@
     <definedName name="_xlcn.WorksheetConnection_combined_data.xlsxTable21" hidden="1">[0]!Table2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
@@ -87,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="700">
   <si>
     <t>Area Team Code</t>
   </si>
@@ -2175,13 +2179,28 @@
   </si>
   <si>
     <t xml:space="preserve">Surrey and Sussex </t>
+  </si>
+  <si>
+    <t>Average of Median Total Time in A&amp;E</t>
+  </si>
+  <si>
+    <t>Sum of  Total A &amp; E HES Attendances</t>
+  </si>
+  <si>
+    <t>Sum of Total money spent</t>
+  </si>
+  <si>
+    <t>Medical Centres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2195,12 +2214,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2224,7 +2237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2265,20 +2278,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2315,9 +2319,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,6 +2407,1390 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42065.080520138887" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="83">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Combined_Data" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Organisation Code" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Area Team Name" numFmtId="0">
+      <sharedItems count="25">
+        <s v="Arden, Herefordshire and Worchestershire"/>
+        <s v="Bath, Gloucestershire, Swindon and Wiltshire "/>
+        <s v="Birmingham and the Black Country"/>
+        <s v="Bristol, North Somerset, Somerset and South Gloucestershire"/>
+        <s v="Cheshire, Warrington and Wirral"/>
+        <s v="Cumbria, Northumberland, Tyne and Wear"/>
+        <s v="Derbyshire and Nottinghamshire "/>
+        <s v="Devon, Cornwall and Isles of Scilly"/>
+        <s v="Durham, Darlington and Tees"/>
+        <s v="East Anglia"/>
+        <s v="Essex"/>
+        <s v="Greater Manchester"/>
+        <s v="Hertfordshire and the South Midlands"/>
+        <s v="Kent and Medway"/>
+        <s v="Lancashire"/>
+        <s v="Leicestershire and Lincolnshire"/>
+        <s v="London"/>
+        <s v="Merseyside"/>
+        <s v="Merseyside "/>
+        <s v="North Yorkshire and Humber"/>
+        <s v="Shropshire and Staffordshire"/>
+        <s v="Surrey and Sussex "/>
+        <s v="Thames Valley"/>
+        <s v="Wessex"/>
+        <s v="West Yorkshire"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="83">
+        <s v="University Hospitals Coventry And Warwickshire NHS Trust"/>
+        <s v="Worcestershire Acute Hospitals NHS Trust"/>
+        <s v="South Warwickshire General Hospitals NHS Trust"/>
+        <s v="Hereford Hospitals NHS Trust"/>
+        <s v="George Eliot Hospital NHS Trust"/>
+        <s v="Royal United Hospital Bath NHS Trust"/>
+        <s v="Great Western Hospitals NHS Foundation Trust"/>
+        <s v="Sandwell And West Birmingham Hospitals NHS Trust"/>
+        <s v="Walsall Hospitals NHS Trust"/>
+        <s v="The Dudley Group Of Hospitals NHS Foundation Trust"/>
+        <s v="North Bristol NHS Trust"/>
+        <s v="Weston Area Health NHS Trust"/>
+        <s v="University Hospitals Of Bristol NHS Foundation Trust"/>
+        <s v="Somerset Partnership NHS Foundation Trust"/>
+        <s v="Warrington And Halton Hospitals NHS Foundation Trust"/>
+        <s v="East Cheshire NHS Trust"/>
+        <s v="5 Boroughs Partnership NHS Trust"/>
+        <s v="University Hospitals Of Morecambe Bay NHS Trust"/>
+        <s v="North Cumbria University Hospitals NHS Trust"/>
+        <s v="Nottingham University Hospitals NHS Trust"/>
+        <s v="Plymouth Hospitals NHS Trust"/>
+        <s v="Royal Cornwall Hospitals NHS Trust"/>
+        <s v="Northern Devon Healthcare NHS Trust"/>
+        <s v="South Tees Hospitals NHS Trust"/>
+        <s v="Ipswich Hospital NHS Trust"/>
+        <s v="Queen Elizabeth Hospital Kings Lynn NHS Trust"/>
+        <s v="West Suffolk Hospital NHS Trust"/>
+        <s v="Hinchingbrooke Healthcare NHS Trust"/>
+        <s v="Mid Essex Hospital Services NHS Trust"/>
+        <s v="Princess Alexandra Hospital NHS Trust"/>
+        <s v="Colchester Hospital University NHS Foundation Trust"/>
+        <s v="Pennine Acute Hospitals NHS Trust"/>
+        <s v="Central Manchester University Hospitals NHS Foundation Trust"/>
+        <s v="Wrightington, Wigan And Leigh NHS Foundation Trust"/>
+        <s v="Royal Bolton Hospital NHS Foundation Trust"/>
+        <s v="East And North Hertfordshire NHS Trust"/>
+        <s v="West Hertfordshire Hospitals NHS Trust"/>
+        <s v="Northampton General Hospital NHS Trust"/>
+        <s v="Bedford Hospital NHS Trust"/>
+        <s v="Kettering General Hospital NHS Foundation Trust"/>
+        <s v="East Kent Hospitals University NHS Foundation Trust"/>
+        <s v="Maidstone And Tunbridge Wells NHS Trust"/>
+        <s v="Dartford And Gravesham NHS Trust"/>
+        <s v="East Lancashire Hospitals NHS Trust"/>
+        <s v="University Hospitals Of Leicester NHS Trust"/>
+        <s v="United Lincolnshire Hospitals NHS Trust"/>
+        <s v="Imperial College Healthcare NHS Trust"/>
+        <s v="Royal Free Hampstead NHS Trust"/>
+        <s v="St George's Healthcare NHS Trust"/>
+        <s v="Barking, Havering And Redbridge University Hospitals NHS Trust"/>
+        <s v="North West London Hospitals NHS Trust"/>
+        <s v="Epsom And St Helier University Hospitals NHS Trust"/>
+        <s v="Barnet And Chase Farm Hospitals NHS Trust"/>
+        <s v="Kingston Hospital NHS Trust"/>
+        <s v="The Lewisham Hospital NHS Trust"/>
+        <s v="The Hillingdon Hospital NHS Trust"/>
+        <s v="North Middlesex University Hospital NHS Trust"/>
+        <s v="West Middlesex University NHS Trust"/>
+        <s v="Ealing Hospital NHS Trust"/>
+        <s v="North East London NHS Foundation Trust"/>
+        <s v="Royal Liverpool Broadgreen Hospitals NHS Trust"/>
+        <s v="Southport And Ormskirk Hospital NHS Trust"/>
+        <s v="Alder Hey Childrens NHS Foundation Trust"/>
+        <s v="St Helens And Knowsley Hospitals NHS Trust"/>
+        <s v="Hull And East Yorkshire Hospitals NHS Trust"/>
+        <s v="Humber Mental Health Teaching NHS Trust"/>
+        <s v="University Hospital Of North Staffordshire Hospital NHS Trust"/>
+        <s v="Shrewsbury And Telford Hospital NHS Trust"/>
+        <s v="Burton Hospitals NHS Foundation Trust"/>
+        <s v="Brighton And Sussex University Hospitals NHS Trust"/>
+        <s v="East Sussex Hospitals NHS Trust"/>
+        <s v="Ashford And St Peter's Hospitals NHS Trust"/>
+        <s v="Royal Surrey County Hospital NHS Trust"/>
+        <s v="Surrey And Sussex Healthcare NHS Trust"/>
+        <s v="South Downs Health NHS Trust"/>
+        <s v="Oxford Radcliffe Hospital NHS Trust"/>
+        <s v="Buckinghamshire Hospitals NHS Trust"/>
+        <s v="Southampton University Hospitals NHS Trust"/>
+        <s v="Portsmouth Hospitals NHS Trust"/>
+        <s v="Hampshire Partnership NHS Trust"/>
+        <s v="Leeds Teaching Hospitals NHS Trust"/>
+        <s v="Mid Yorkshire Hospitals NHS Trust"/>
+        <s v="Airedale NHS Trust"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total money spent" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4753" maxValue="853539"/>
+    </cacheField>
+    <cacheField name=" Total A &amp; E HES Attendances" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="964" maxValue="26163"/>
+    </cacheField>
+    <cacheField name="Median Time to Treatment" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11" maxValue="891"/>
+    </cacheField>
+    <cacheField name="Median Total Time in A&amp;E" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="31" maxValue="934"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="83">
+  <r>
+    <s v="RKB"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="415461"/>
+    <n v="15419"/>
+    <n v="49"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <s v="RWP"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="286540"/>
+    <n v="14776"/>
+    <n v="32"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <s v="RJC"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="112929"/>
+    <n v="5557"/>
+    <n v="44"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <s v="RLQ"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="106273"/>
+    <n v="4541"/>
+    <n v="43"/>
+    <n v="125"/>
+  </r>
+  <r>
+    <s v="RLT"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="92786"/>
+    <n v="5586"/>
+    <n v="28"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <s v="RD1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="199812"/>
+    <n v="6102"/>
+    <n v="46"/>
+    <n v="167"/>
+  </r>
+  <r>
+    <s v="RN3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="123026"/>
+    <n v="9973"/>
+    <n v="51"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <s v="RXK"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="348059"/>
+    <n v="18019"/>
+    <n v="48"/>
+    <n v="137"/>
+  </r>
+  <r>
+    <s v="RBK"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="158148"/>
+    <n v="6698"/>
+    <n v="51"/>
+    <n v="116"/>
+  </r>
+  <r>
+    <s v="RNA"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="106418"/>
+    <n v="8269"/>
+    <n v="75"/>
+    <n v="161"/>
+  </r>
+  <r>
+    <s v="RVJ"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="425169"/>
+    <n v="7018"/>
+    <n v="54"/>
+    <n v="189"/>
+  </r>
+  <r>
+    <s v="RA3"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="83389"/>
+    <n v="4412"/>
+    <n v="71"/>
+    <n v="176"/>
+  </r>
+  <r>
+    <s v="RA7"/>
+    <x v="3"/>
+    <x v="12"/>
+    <n v="67807"/>
+    <n v="10487"/>
+    <n v="50"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <s v="RH5"/>
+    <x v="3"/>
+    <x v="13"/>
+    <n v="4753"/>
+    <n v="7026"/>
+    <n v="39"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <s v="RWW"/>
+    <x v="4"/>
+    <x v="14"/>
+    <n v="112931"/>
+    <n v="8616"/>
+    <n v="76.5"/>
+    <n v="148"/>
+  </r>
+  <r>
+    <s v="RJN"/>
+    <x v="4"/>
+    <x v="15"/>
+    <n v="107142"/>
+    <n v="4347"/>
+    <n v="49.5"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <s v="RTV"/>
+    <x v="4"/>
+    <x v="16"/>
+    <n v="95588"/>
+    <n v="3554"/>
+    <n v="18"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <s v="RTX"/>
+    <x v="5"/>
+    <x v="17"/>
+    <n v="227133"/>
+    <n v="7380"/>
+    <n v="47"/>
+    <n v="134"/>
+  </r>
+  <r>
+    <s v="RNL"/>
+    <x v="5"/>
+    <x v="18"/>
+    <n v="208058"/>
+    <n v="6647"/>
+    <n v="17"/>
+    <n v="134"/>
+  </r>
+  <r>
+    <s v="RX1"/>
+    <x v="6"/>
+    <x v="19"/>
+    <n v="662136"/>
+    <n v="15754"/>
+    <n v="58"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <s v="RK9"/>
+    <x v="7"/>
+    <x v="20"/>
+    <n v="359326"/>
+    <n v="7797"/>
+    <n v="50"/>
+    <n v="159"/>
+  </r>
+  <r>
+    <s v="REF"/>
+    <x v="7"/>
+    <x v="21"/>
+    <n v="275621"/>
+    <n v="6142"/>
+    <n v="41"/>
+    <n v="168"/>
+  </r>
+  <r>
+    <s v="RBZ"/>
+    <x v="7"/>
+    <x v="22"/>
+    <n v="117507"/>
+    <n v="6532"/>
+    <n v="20"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <s v="RTR"/>
+    <x v="8"/>
+    <x v="23"/>
+    <n v="417778"/>
+    <n v="10459"/>
+    <n v="40"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <s v="RGQ"/>
+    <x v="9"/>
+    <x v="24"/>
+    <n v="198864"/>
+    <n v="6562"/>
+    <n v="79"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <s v="RCX"/>
+    <x v="9"/>
+    <x v="25"/>
+    <n v="131958"/>
+    <n v="4579"/>
+    <n v="51"/>
+    <n v="148"/>
+  </r>
+  <r>
+    <s v="RGR"/>
+    <x v="9"/>
+    <x v="26"/>
+    <n v="131417"/>
+    <n v="5253"/>
+    <n v="113"/>
+    <n v="164"/>
+  </r>
+  <r>
+    <s v="RQQ"/>
+    <x v="9"/>
+    <x v="27"/>
+    <n v="88181"/>
+    <n v="3613"/>
+    <n v="157"/>
+    <n v="159"/>
+  </r>
+  <r>
+    <s v="RQ8"/>
+    <x v="10"/>
+    <x v="28"/>
+    <n v="213254"/>
+    <n v="7383"/>
+    <n v="70"/>
+    <n v="166"/>
+  </r>
+  <r>
+    <s v="RQW"/>
+    <x v="10"/>
+    <x v="29"/>
+    <n v="153462"/>
+    <n v="8812"/>
+    <n v="92"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <s v="RDE"/>
+    <x v="10"/>
+    <x v="30"/>
+    <n v="15111"/>
+    <n v="6953"/>
+    <n v="58"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <s v="RW6"/>
+    <x v="11"/>
+    <x v="31"/>
+    <n v="498778"/>
+    <n v="26163"/>
+    <n v="56"/>
+    <n v="137"/>
+  </r>
+  <r>
+    <s v="RW3"/>
+    <x v="11"/>
+    <x v="32"/>
+    <n v="443870"/>
+    <n v="22536"/>
+    <n v="62"/>
+    <n v="133"/>
+  </r>
+  <r>
+    <s v="RRF"/>
+    <x v="11"/>
+    <x v="33"/>
+    <n v="150200"/>
+    <n v="7541"/>
+    <n v="47"/>
+    <n v="139"/>
+  </r>
+  <r>
+    <s v="RMC"/>
+    <x v="11"/>
+    <x v="34"/>
+    <n v="90468"/>
+    <n v="9340"/>
+    <n v="58"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <s v="RWH"/>
+    <x v="12"/>
+    <x v="35"/>
+    <n v="299072"/>
+    <n v="10773"/>
+    <n v="74"/>
+    <n v="163"/>
+  </r>
+  <r>
+    <s v="RWG"/>
+    <x v="12"/>
+    <x v="36"/>
+    <n v="227562"/>
+    <n v="11100"/>
+    <n v="71"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <s v="RNS"/>
+    <x v="12"/>
+    <x v="37"/>
+    <n v="199423"/>
+    <n v="9153"/>
+    <n v="76"/>
+    <n v="131"/>
+  </r>
+  <r>
+    <s v="RC1"/>
+    <x v="12"/>
+    <x v="38"/>
+    <n v="120944"/>
+    <n v="5754"/>
+    <n v="57"/>
+    <n v="155"/>
+  </r>
+  <r>
+    <s v="RNQ"/>
+    <x v="12"/>
+    <x v="39"/>
+    <n v="90204"/>
+    <n v="6388"/>
+    <n v="61"/>
+    <n v="153"/>
+  </r>
+  <r>
+    <s v="RVV"/>
+    <x v="13"/>
+    <x v="40"/>
+    <n v="369912"/>
+    <n v="17173"/>
+    <n v="50"/>
+    <n v="143"/>
+  </r>
+  <r>
+    <s v="RWF"/>
+    <x v="13"/>
+    <x v="41"/>
+    <n v="289003"/>
+    <n v="10810"/>
+    <n v="65"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <s v="RN7"/>
+    <x v="13"/>
+    <x v="42"/>
+    <n v="125713"/>
+    <n v="8196"/>
+    <n v="85"/>
+    <n v="187"/>
+  </r>
+  <r>
+    <s v="RXR"/>
+    <x v="14"/>
+    <x v="43"/>
+    <n v="310031"/>
+    <n v="14886"/>
+    <n v="57"/>
+    <n v="127"/>
+  </r>
+  <r>
+    <s v="RWE"/>
+    <x v="15"/>
+    <x v="44"/>
+    <n v="635202"/>
+    <n v="21676"/>
+    <n v="22"/>
+    <n v="111"/>
+  </r>
+  <r>
+    <s v="RWD"/>
+    <x v="15"/>
+    <x v="45"/>
+    <n v="344787"/>
+    <n v="12244"/>
+    <n v="54"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <s v="RYJ"/>
+    <x v="16"/>
+    <x v="46"/>
+    <n v="804211"/>
+    <n v="22809"/>
+    <n v="75"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <s v="RAL"/>
+    <x v="16"/>
+    <x v="47"/>
+    <n v="464745"/>
+    <n v="8289"/>
+    <n v="64"/>
+    <n v="163"/>
+  </r>
+  <r>
+    <s v="RJ7"/>
+    <x v="16"/>
+    <x v="48"/>
+    <n v="427976"/>
+    <n v="13447"/>
+    <n v="87"/>
+    <n v="178"/>
+  </r>
+  <r>
+    <s v="RF4"/>
+    <x v="16"/>
+    <x v="49"/>
+    <n v="406283"/>
+    <n v="19282"/>
+    <n v="96"/>
+    <n v="186"/>
+  </r>
+  <r>
+    <s v="RV8"/>
+    <x v="16"/>
+    <x v="50"/>
+    <n v="330236"/>
+    <n v="17085"/>
+    <n v="51"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <s v="RVR"/>
+    <x v="16"/>
+    <x v="51"/>
+    <n v="301279"/>
+    <n v="12372"/>
+    <n v="60"/>
+    <n v="144"/>
+  </r>
+  <r>
+    <s v="RVL"/>
+    <x v="16"/>
+    <x v="52"/>
+    <n v="289603"/>
+    <n v="12292"/>
+    <n v="60"/>
+    <n v="142"/>
+  </r>
+  <r>
+    <s v="RAX"/>
+    <x v="16"/>
+    <x v="53"/>
+    <n v="178839"/>
+    <n v="9485"/>
+    <n v="36"/>
+    <n v="192"/>
+  </r>
+  <r>
+    <s v="RJ2"/>
+    <x v="16"/>
+    <x v="54"/>
+    <n v="173528"/>
+    <n v="17903"/>
+    <n v="39"/>
+    <n v="177"/>
+  </r>
+  <r>
+    <s v="RAS"/>
+    <x v="16"/>
+    <x v="55"/>
+    <n v="160964"/>
+    <n v="7054"/>
+    <n v="68"/>
+    <n v="179"/>
+  </r>
+  <r>
+    <s v="RAP"/>
+    <x v="16"/>
+    <x v="56"/>
+    <n v="146076"/>
+    <n v="14909"/>
+    <n v="90"/>
+    <n v="174"/>
+  </r>
+  <r>
+    <s v="RFW"/>
+    <x v="16"/>
+    <x v="57"/>
+    <n v="133324"/>
+    <n v="5159"/>
+    <n v="37"/>
+    <n v="207"/>
+  </r>
+  <r>
+    <s v="RC3"/>
+    <x v="16"/>
+    <x v="58"/>
+    <n v="124990"/>
+    <n v="15317"/>
+    <n v="52"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <s v="RAT"/>
+    <x v="16"/>
+    <x v="59"/>
+    <n v="19004"/>
+    <n v="5222"/>
+    <n v="23"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <s v="RQ6"/>
+    <x v="17"/>
+    <x v="60"/>
+    <n v="355142"/>
+    <n v="9405"/>
+    <n v="44"/>
+    <n v="151"/>
+  </r>
+  <r>
+    <s v="RVY"/>
+    <x v="17"/>
+    <x v="61"/>
+    <n v="132924"/>
+    <n v="7947"/>
+    <n v="51"/>
+    <n v="122"/>
+  </r>
+  <r>
+    <s v="RBS"/>
+    <x v="17"/>
+    <x v="62"/>
+    <n v="50409"/>
+    <n v="4440"/>
+    <n v="70"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <s v="RBN"/>
+    <x v="18"/>
+    <x v="63"/>
+    <n v="233103"/>
+    <n v="8485"/>
+    <n v="75"/>
+    <n v="179"/>
+  </r>
+  <r>
+    <s v="RWA"/>
+    <x v="19"/>
+    <x v="64"/>
+    <n v="430649"/>
+    <n v="11283"/>
+    <n v="84"/>
+    <n v="169"/>
+  </r>
+  <r>
+    <s v="RV9"/>
+    <x v="19"/>
+    <x v="65"/>
+    <n v="76355"/>
+    <n v="964"/>
+    <n v="20"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <s v="RJE"/>
+    <x v="20"/>
+    <x v="66"/>
+    <n v="361204"/>
+    <n v="10569"/>
+    <n v="75"/>
+    <n v="191"/>
+  </r>
+  <r>
+    <s v="RXW"/>
+    <x v="20"/>
+    <x v="67"/>
+    <n v="237534"/>
+    <n v="8826"/>
+    <n v="47"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <s v="RJF"/>
+    <x v="20"/>
+    <x v="68"/>
+    <n v="71687"/>
+    <n v="9647"/>
+    <n v="42"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <s v="RXH"/>
+    <x v="21"/>
+    <x v="69"/>
+    <n v="380597"/>
+    <n v="12833"/>
+    <n v="56"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <s v="RXC"/>
+    <x v="21"/>
+    <x v="70"/>
+    <n v="259674"/>
+    <n v="9120"/>
+    <n v="54"/>
+    <n v="151"/>
+  </r>
+  <r>
+    <s v="RTK"/>
+    <x v="21"/>
+    <x v="71"/>
+    <n v="201104"/>
+    <n v="8030"/>
+    <n v="54"/>
+    <n v="160"/>
+  </r>
+  <r>
+    <s v="RA2"/>
+    <x v="21"/>
+    <x v="72"/>
+    <n v="192089"/>
+    <n v="5982"/>
+    <n v="22"/>
+    <n v="165"/>
+  </r>
+  <r>
+    <s v="RTP"/>
+    <x v="21"/>
+    <x v="73"/>
+    <n v="177636"/>
+    <n v="7291"/>
+    <n v="891"/>
+    <n v="934"/>
+  </r>
+  <r>
+    <s v="RDR"/>
+    <x v="21"/>
+    <x v="74"/>
+    <n v="69395"/>
+    <n v="4609"/>
+    <n v="11"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <s v="RTH"/>
+    <x v="22"/>
+    <x v="75"/>
+    <n v="598538"/>
+    <n v="10568"/>
+    <n v="70"/>
+    <n v="177"/>
+  </r>
+  <r>
+    <s v="RXQ"/>
+    <x v="22"/>
+    <x v="76"/>
+    <n v="271417"/>
+    <n v="6666"/>
+    <n v="76"/>
+    <n v="168"/>
+  </r>
+  <r>
+    <s v="RHM"/>
+    <x v="23"/>
+    <x v="77"/>
+    <n v="463345"/>
+    <n v="9605"/>
+    <n v="75"/>
+    <n v="177"/>
+  </r>
+  <r>
+    <s v="RHU"/>
+    <x v="23"/>
+    <x v="78"/>
+    <n v="417921"/>
+    <n v="11017"/>
+    <n v="56"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <s v="RW1"/>
+    <x v="23"/>
+    <x v="79"/>
+    <n v="191458"/>
+    <n v="1902"/>
+    <n v="29"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <s v="RR8"/>
+    <x v="24"/>
+    <x v="80"/>
+    <n v="853539"/>
+    <n v="17598"/>
+    <n v="95"/>
+    <n v="174"/>
+  </r>
+  <r>
+    <s v="RXF"/>
+    <x v="24"/>
+    <x v="81"/>
+    <n v="359084"/>
+    <n v="19063"/>
+    <n v="50"/>
+    <n v="131"/>
+  </r>
+  <r>
+    <s v="RCF"/>
+    <x v="24"/>
+    <x v="82"/>
+    <n v="117089"/>
+    <n v="4350"/>
+    <n v="78"/>
+    <n v="147"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Data_PivotTable" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Medical Centres">
+  <location ref="A1:D109" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="26">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="84">
+        <item x="16"/>
+        <item x="82"/>
+        <item x="62"/>
+        <item x="71"/>
+        <item x="49"/>
+        <item x="52"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="76"/>
+        <item x="68"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="42"/>
+        <item x="58"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="40"/>
+        <item x="43"/>
+        <item x="70"/>
+        <item x="51"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="79"/>
+        <item x="3"/>
+        <item x="27"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="46"/>
+        <item x="24"/>
+        <item x="39"/>
+        <item x="53"/>
+        <item x="80"/>
+        <item x="41"/>
+        <item x="28"/>
+        <item x="81"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="59"/>
+        <item x="56"/>
+        <item x="50"/>
+        <item x="37"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="75"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="78"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="34"/>
+        <item x="21"/>
+        <item x="47"/>
+        <item x="60"/>
+        <item x="72"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="67"/>
+        <item x="13"/>
+        <item x="74"/>
+        <item x="23"/>
+        <item x="2"/>
+        <item x="77"/>
+        <item x="61"/>
+        <item x="48"/>
+        <item x="63"/>
+        <item x="73"/>
+        <item x="9"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="45"/>
+        <item x="66"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="44"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="36"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="108">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Median Total Time in A&amp;E" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="1"/>
+    <dataField name="Sum of  Total A &amp; E HES Attendances" fld="4" baseField="2" baseItem="20" numFmtId="3"/>
+    <dataField name="Sum of Total money spent" fld="3" baseField="1" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Quality_Indicators" displayName="Quality_Indicators" ref="A1:G193" totalsRowShown="0">
   <autoFilter ref="A1:G193"/>
@@ -2417,10 +3811,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Spend_Data5" displayName="Spend_Data5" ref="A1:G87" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G87"/>
-  <sortState ref="A2:G86">
-    <sortCondition ref="B1:B86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Combined_Data" displayName="Combined_Data" ref="A1:G84" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G84"/>
+  <sortState ref="A2:G87">
+    <sortCondition ref="B1:B87"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Organisation Code" dataDxfId="6"/>
@@ -2741,7 +4135,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7195,10 +8589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7238,117 +8632,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>671</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D2" s="9">
-        <v>112929</v>
+        <v>415461</v>
       </c>
       <c r="E2" s="8">
-        <v>5557</v>
+        <v>15419</v>
       </c>
       <c r="F2" s="8">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>671</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>515</v>
+        <v>600</v>
       </c>
       <c r="D3" s="9">
-        <v>415461</v>
-      </c>
-      <c r="E3" s="8">
-        <v>15419</v>
-      </c>
-      <c r="F3" s="8">
-        <v>49</v>
-      </c>
-      <c r="G3" s="10">
-        <v>120</v>
+        <v>286540</v>
+      </c>
+      <c r="E3" s="11">
+        <v>14776</v>
+      </c>
+      <c r="F3" s="11">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>671</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D4" s="9">
-        <v>106273</v>
+        <v>112929</v>
       </c>
       <c r="E4" s="8">
-        <v>4541</v>
+        <v>5557</v>
       </c>
       <c r="F4" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="10">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>159</v>
+        <v>433</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>671</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D5" s="9">
-        <v>92786</v>
-      </c>
-      <c r="E5" s="11">
-        <v>5586</v>
-      </c>
-      <c r="F5" s="11">
-        <v>28</v>
-      </c>
-      <c r="G5" s="12">
-        <v>112</v>
+        <v>106273</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4541</v>
+      </c>
+      <c r="F5" s="8">
+        <v>43</v>
+      </c>
+      <c r="G5" s="10">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>427</v>
+        <v>159</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>671</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>600</v>
+        <v>523</v>
       </c>
       <c r="D6" s="9">
-        <v>286540</v>
+        <v>92786</v>
       </c>
       <c r="E6" s="11">
-        <v>14776</v>
+        <v>5586</v>
       </c>
       <c r="F6" s="11">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="12">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7399,252 +8793,252 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>673</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>461</v>
+        <v>628</v>
       </c>
       <c r="D9" s="9">
-        <v>158148</v>
-      </c>
-      <c r="E9" s="8">
-        <v>6698</v>
-      </c>
-      <c r="F9" s="8">
-        <v>51</v>
-      </c>
-      <c r="G9" s="10">
-        <v>116</v>
+        <v>348059</v>
+      </c>
+      <c r="E9" s="11">
+        <v>18019</v>
+      </c>
+      <c r="F9" s="11">
+        <v>48</v>
+      </c>
+      <c r="G9" s="12">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>673</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>534</v>
+        <v>461</v>
       </c>
       <c r="D10" s="9">
-        <v>106418</v>
+        <v>158148</v>
       </c>
       <c r="E10" s="8">
-        <v>8269</v>
+        <v>6698</v>
       </c>
       <c r="F10" s="8">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G10" s="10">
-        <v>161</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>673</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>628</v>
+        <v>534</v>
       </c>
       <c r="D11" s="9">
-        <v>348059</v>
-      </c>
-      <c r="E11" s="11">
-        <v>18019</v>
-      </c>
-      <c r="F11" s="11">
-        <v>48</v>
-      </c>
-      <c r="G11" s="12">
-        <v>137</v>
+        <v>106418</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8269</v>
+      </c>
+      <c r="F11" s="8">
+        <v>75</v>
+      </c>
+      <c r="G11" s="10">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>419</v>
+        <v>247</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>676</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>447</v>
+        <v>582</v>
       </c>
       <c r="D12" s="9">
-        <v>83389</v>
-      </c>
-      <c r="E12" s="11">
-        <v>4412</v>
-      </c>
-      <c r="F12" s="11">
-        <v>71</v>
-      </c>
-      <c r="G12" s="12">
-        <v>176</v>
+        <v>425169</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7018</v>
+      </c>
+      <c r="F12" s="8">
+        <v>54</v>
+      </c>
+      <c r="G12" s="10">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>676</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D13" s="9">
-        <v>67807</v>
+        <v>83389</v>
       </c>
       <c r="E13" s="11">
-        <v>10487</v>
+        <v>4412</v>
       </c>
       <c r="F13" s="11">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G13" s="12">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>676</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="D14" s="9">
-        <v>4753</v>
-      </c>
-      <c r="E14" s="8">
-        <v>7026</v>
-      </c>
-      <c r="F14" s="8">
-        <v>39</v>
-      </c>
-      <c r="G14" s="10">
-        <v>64</v>
+        <v>67807</v>
+      </c>
+      <c r="E14" s="11">
+        <v>10487</v>
+      </c>
+      <c r="F14" s="11">
+        <v>50</v>
+      </c>
+      <c r="G14" s="12">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>676</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>582</v>
+        <v>495</v>
       </c>
       <c r="D15" s="9">
-        <v>425169</v>
+        <v>4753</v>
       </c>
       <c r="E15" s="8">
-        <v>7018</v>
+        <v>7026</v>
       </c>
       <c r="F15" s="8">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G15" s="10">
-        <v>189</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>677</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>511</v>
+        <v>605</v>
       </c>
       <c r="D16" s="9">
-        <v>107142</v>
-      </c>
-      <c r="E16" s="11">
-        <v>4347</v>
-      </c>
-      <c r="F16" s="11">
-        <v>49.5</v>
-      </c>
-      <c r="G16" s="12">
-        <v>140</v>
+        <v>112931</v>
+      </c>
+      <c r="E16" s="8">
+        <v>8616</v>
+      </c>
+      <c r="F16" s="8">
+        <v>76.5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>677</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>576</v>
+        <v>511</v>
       </c>
       <c r="D17" s="9">
-        <v>95588</v>
-      </c>
-      <c r="E17" s="8">
-        <v>3554</v>
-      </c>
-      <c r="F17" s="8">
-        <v>18</v>
-      </c>
-      <c r="G17" s="10">
-        <v>53</v>
+        <v>107142</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4347</v>
+      </c>
+      <c r="F17" s="11">
+        <v>49.5</v>
+      </c>
+      <c r="G17" s="12">
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>677</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="D18" s="9">
-        <v>112931</v>
+        <v>95588</v>
       </c>
       <c r="E18" s="8">
-        <v>8616</v>
+        <v>3554</v>
       </c>
       <c r="F18" s="8">
-        <v>76.5</v>
+        <v>18</v>
       </c>
       <c r="G18" s="10">
-        <v>148</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>249</v>
+        <v>405</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>680</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="D19" s="9">
-        <v>208058</v>
+        <v>227133</v>
       </c>
       <c r="E19" s="11">
-        <v>6647</v>
+        <v>7380</v>
       </c>
       <c r="F19" s="11">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G19" s="12">
         <v>134</v>
@@ -7652,22 +9046,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>405</v>
+        <v>249</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>680</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="D20" s="9">
-        <v>227133</v>
+        <v>208058</v>
       </c>
       <c r="E20" s="11">
-        <v>7380</v>
+        <v>6647</v>
       </c>
       <c r="F20" s="11">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G20" s="12">
         <v>134</v>
@@ -7698,25 +9092,25 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>682</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="D22" s="9">
-        <v>117507</v>
+        <v>359326</v>
       </c>
       <c r="E22" s="11">
-        <v>6532</v>
+        <v>7797</v>
       </c>
       <c r="F22" s="11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G22" s="12">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7744,25 +9138,25 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>682</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="D24" s="9">
-        <v>359326</v>
+        <v>117507</v>
       </c>
       <c r="E24" s="11">
-        <v>7797</v>
+        <v>6532</v>
       </c>
       <c r="F24" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G24" s="12">
-        <v>159</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7790,48 +9184,48 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>375</v>
+        <v>195</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>684</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="D26" s="9">
-        <v>131958</v>
+        <v>198864</v>
       </c>
       <c r="E26" s="11">
-        <v>4579</v>
+        <v>6562</v>
       </c>
       <c r="F26" s="11">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G26" s="12">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>195</v>
+        <v>375</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>684</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D27" s="9">
-        <v>198864</v>
+        <v>131958</v>
       </c>
       <c r="E27" s="11">
-        <v>6562</v>
+        <v>4579</v>
       </c>
       <c r="F27" s="11">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G27" s="12">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7882,209 +9276,209 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>685</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>478</v>
+        <v>551</v>
       </c>
       <c r="D30" s="9">
-        <v>15111</v>
+        <v>213254</v>
       </c>
       <c r="E30" s="11">
-        <v>6953</v>
+        <v>7383</v>
       </c>
       <c r="F30" s="11">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G30" s="12">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>685</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D31" s="9">
-        <v>213254</v>
-      </c>
-      <c r="E31" s="11">
-        <v>7383</v>
-      </c>
-      <c r="F31" s="11">
-        <v>70</v>
-      </c>
-      <c r="G31" s="12">
-        <v>166</v>
+        <v>153462</v>
+      </c>
+      <c r="E31" s="8">
+        <v>8812</v>
+      </c>
+      <c r="F31" s="8">
+        <v>92</v>
+      </c>
+      <c r="G31" s="10">
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>685</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>553</v>
+        <v>478</v>
       </c>
       <c r="D32" s="9">
-        <v>153462</v>
-      </c>
-      <c r="E32" s="8">
-        <v>8812</v>
-      </c>
-      <c r="F32" s="8">
-        <v>92</v>
-      </c>
-      <c r="G32" s="10">
-        <v>156</v>
+        <v>15111</v>
+      </c>
+      <c r="E32" s="11">
+        <v>6953</v>
+      </c>
+      <c r="F32" s="11">
+        <v>58</v>
+      </c>
+      <c r="G32" s="12">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>686</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="D33" s="9">
-        <v>90468</v>
-      </c>
-      <c r="E33" s="11">
-        <v>9340</v>
-      </c>
-      <c r="F33" s="11">
-        <v>58</v>
-      </c>
-      <c r="G33" s="12">
-        <v>123</v>
+        <v>498778</v>
+      </c>
+      <c r="E33" s="8">
+        <v>26163</v>
+      </c>
+      <c r="F33" s="8">
+        <v>56</v>
+      </c>
+      <c r="G33" s="10">
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>431</v>
+        <v>86</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>686</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="D34" s="9">
-        <v>150200</v>
+        <v>443870</v>
       </c>
       <c r="E34" s="11">
-        <v>7541</v>
+        <v>22536</v>
       </c>
       <c r="F34" s="11">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G34" s="12">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>86</v>
+        <v>431</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>686</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="D35" s="9">
-        <v>443870</v>
+        <v>150200</v>
       </c>
       <c r="E35" s="11">
-        <v>22536</v>
+        <v>7541</v>
       </c>
       <c r="F35" s="11">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G35" s="12">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>686</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>593</v>
+        <v>529</v>
       </c>
       <c r="D36" s="9">
-        <v>498778</v>
-      </c>
-      <c r="E36" s="8">
-        <v>26163</v>
-      </c>
-      <c r="F36" s="8">
-        <v>56</v>
-      </c>
-      <c r="G36" s="10">
-        <v>137</v>
+        <v>90468</v>
+      </c>
+      <c r="E36" s="11">
+        <v>9340</v>
+      </c>
+      <c r="F36" s="11">
+        <v>58</v>
+      </c>
+      <c r="G36" s="12">
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>687</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>469</v>
+        <v>599</v>
       </c>
       <c r="D37" s="9">
-        <v>120944</v>
+        <v>299072</v>
       </c>
       <c r="E37" s="8">
-        <v>5754</v>
+        <v>10773</v>
       </c>
       <c r="F37" s="8">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G37" s="10">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>203</v>
+        <v>411</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>687</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="D38" s="9">
-        <v>90204</v>
+        <v>227562</v>
       </c>
       <c r="E38" s="11">
-        <v>6388</v>
+        <v>11100</v>
       </c>
       <c r="F38" s="11">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G38" s="12">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8112,117 +9506,117 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B40" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>687</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>598</v>
+        <v>469</v>
       </c>
       <c r="D40" s="9">
-        <v>227562</v>
-      </c>
-      <c r="E40" s="11">
-        <v>11100</v>
-      </c>
-      <c r="F40" s="11">
-        <v>71</v>
-      </c>
-      <c r="G40" s="12">
-        <v>130</v>
+        <v>120944</v>
+      </c>
+      <c r="E40" s="8">
+        <v>5754</v>
+      </c>
+      <c r="F40" s="8">
+        <v>57</v>
+      </c>
+      <c r="G40" s="10">
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>687</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>599</v>
+        <v>540</v>
       </c>
       <c r="D41" s="9">
-        <v>299072</v>
-      </c>
-      <c r="E41" s="8">
-        <v>10773</v>
-      </c>
-      <c r="F41" s="8">
-        <v>74</v>
-      </c>
-      <c r="G41" s="10">
-        <v>163</v>
+        <v>90204</v>
+      </c>
+      <c r="E41" s="11">
+        <v>6388</v>
+      </c>
+      <c r="F41" s="11">
+        <v>61</v>
+      </c>
+      <c r="G41" s="12">
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>688</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>533</v>
+        <v>587</v>
       </c>
       <c r="D42" s="9">
-        <v>125713</v>
+        <v>369912</v>
       </c>
       <c r="E42" s="11">
-        <v>8196</v>
+        <v>17173</v>
       </c>
       <c r="F42" s="11">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G42" s="12">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>688</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="D43" s="9">
-        <v>369912</v>
-      </c>
-      <c r="E43" s="11">
-        <v>17173</v>
-      </c>
-      <c r="F43" s="11">
-        <v>50</v>
-      </c>
-      <c r="G43" s="12">
-        <v>143</v>
+        <v>289003</v>
+      </c>
+      <c r="E43" s="8">
+        <v>10810</v>
+      </c>
+      <c r="F43" s="8">
+        <v>65</v>
+      </c>
+      <c r="G43" s="10">
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>688</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>597</v>
+        <v>533</v>
       </c>
       <c r="D44" s="9">
-        <v>289003</v>
-      </c>
-      <c r="E44" s="8">
-        <v>10810</v>
-      </c>
-      <c r="F44" s="8">
-        <v>65</v>
-      </c>
-      <c r="G44" s="10">
-        <v>172</v>
+        <v>125713</v>
+      </c>
+      <c r="E44" s="11">
+        <v>8196</v>
+      </c>
+      <c r="F44" s="11">
+        <v>85</v>
+      </c>
+      <c r="G44" s="12">
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8250,232 +9644,232 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B46" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>690</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D46" s="9">
-        <v>344787</v>
-      </c>
-      <c r="E46" s="8">
-        <v>12244</v>
-      </c>
-      <c r="F46" s="8">
-        <v>54</v>
-      </c>
-      <c r="G46" s="10">
-        <v>140</v>
+        <v>635202</v>
+      </c>
+      <c r="E46" s="11">
+        <v>21676</v>
+      </c>
+      <c r="F46" s="11">
+        <v>22</v>
+      </c>
+      <c r="G46" s="12">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B47" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>690</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D47" s="9">
-        <v>635202</v>
-      </c>
-      <c r="E47" s="11">
-        <v>21676</v>
-      </c>
-      <c r="F47" s="11">
-        <v>22</v>
-      </c>
-      <c r="G47" s="12">
-        <v>111</v>
+        <v>344787</v>
+      </c>
+      <c r="E47" s="8">
+        <v>12244</v>
+      </c>
+      <c r="F47" s="8">
+        <v>54</v>
+      </c>
+      <c r="G47" s="10">
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>450</v>
+        <v>655</v>
       </c>
       <c r="D48" s="9">
-        <v>464745</v>
-      </c>
-      <c r="E48" s="11">
-        <v>8289</v>
-      </c>
-      <c r="F48" s="11">
-        <v>64</v>
-      </c>
-      <c r="G48" s="12">
-        <v>163</v>
+        <v>804211</v>
+      </c>
+      <c r="E48" s="8">
+        <v>22809</v>
+      </c>
+      <c r="F48" s="8">
+        <v>75</v>
+      </c>
+      <c r="G48" s="10">
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D49" s="9">
-        <v>146076</v>
-      </c>
-      <c r="E49" s="8">
-        <v>14909</v>
-      </c>
-      <c r="F49" s="8">
-        <v>90</v>
-      </c>
-      <c r="G49" s="10">
-        <v>174</v>
+        <v>464745</v>
+      </c>
+      <c r="E49" s="11">
+        <v>8289</v>
+      </c>
+      <c r="F49" s="11">
+        <v>64</v>
+      </c>
+      <c r="G49" s="12">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="D50" s="9">
-        <v>160964</v>
+        <v>427976</v>
       </c>
       <c r="E50" s="11">
-        <v>7054</v>
+        <v>13447</v>
       </c>
       <c r="F50" s="11">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G50" s="12">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="D51" s="9">
-        <v>19004</v>
+        <v>406283</v>
       </c>
       <c r="E51" s="8">
-        <v>5222</v>
+        <v>19282</v>
       </c>
       <c r="F51" s="8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="G51" s="10">
-        <v>31</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>457</v>
+        <v>580</v>
       </c>
       <c r="D52" s="9">
-        <v>178839</v>
-      </c>
-      <c r="E52" s="11">
-        <v>9485</v>
-      </c>
-      <c r="F52" s="11">
-        <v>36</v>
-      </c>
-      <c r="G52" s="12">
-        <v>192</v>
+        <v>330236</v>
+      </c>
+      <c r="E52" s="8">
+        <v>17085</v>
+      </c>
+      <c r="F52" s="8">
+        <v>51</v>
+      </c>
+      <c r="G52" s="10">
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>471</v>
+        <v>586</v>
       </c>
       <c r="D53" s="9">
-        <v>124990</v>
-      </c>
-      <c r="E53" s="11">
-        <v>15317</v>
-      </c>
-      <c r="F53" s="11">
-        <v>52</v>
-      </c>
-      <c r="G53" s="12">
-        <v>106</v>
+        <v>301279</v>
+      </c>
+      <c r="E53" s="8">
+        <v>12372</v>
+      </c>
+      <c r="F53" s="8">
+        <v>60</v>
+      </c>
+      <c r="G53" s="10">
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="D54" s="9">
-        <v>406283</v>
-      </c>
-      <c r="E54" s="8">
-        <v>19282</v>
-      </c>
-      <c r="F54" s="8">
-        <v>96</v>
-      </c>
-      <c r="G54" s="10">
-        <v>186</v>
+        <v>289603</v>
+      </c>
+      <c r="E54" s="11">
+        <v>12292</v>
+      </c>
+      <c r="F54" s="11">
+        <v>60</v>
+      </c>
+      <c r="G54" s="12">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>413</v>
+        <v>207</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="D55" s="9">
-        <v>133324</v>
-      </c>
-      <c r="E55" s="8">
-        <v>5159</v>
-      </c>
-      <c r="F55" s="8">
-        <v>37</v>
-      </c>
-      <c r="G55" s="10">
-        <v>207</v>
+        <v>178839</v>
+      </c>
+      <c r="E55" s="11">
+        <v>9485</v>
+      </c>
+      <c r="F55" s="11">
+        <v>36</v>
+      </c>
+      <c r="G55" s="12">
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8503,526 +9897,528 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>111</v>
+        <v>369</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="D57" s="9">
-        <v>177321</v>
-      </c>
-      <c r="E57" s="8">
-        <v>5700</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" s="10">
-        <v>211</v>
+        <v>160964</v>
+      </c>
+      <c r="E57" s="11">
+        <v>7054</v>
+      </c>
+      <c r="F57" s="11">
+        <v>68</v>
+      </c>
+      <c r="G57" s="12">
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="D58" s="9">
-        <v>427976</v>
-      </c>
-      <c r="E58" s="11">
-        <v>13447</v>
-      </c>
-      <c r="F58" s="11">
-        <v>87</v>
-      </c>
-      <c r="G58" s="12">
-        <v>178</v>
+        <v>146076</v>
+      </c>
+      <c r="E58" s="8">
+        <v>14909</v>
+      </c>
+      <c r="F58" s="8">
+        <v>90</v>
+      </c>
+      <c r="G58" s="10">
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="D59" s="9">
-        <v>160445</v>
-      </c>
-      <c r="E59" s="11">
-        <v>7832</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12">
-        <v>168</v>
+        <v>133324</v>
+      </c>
+      <c r="E59" s="8">
+        <v>5159</v>
+      </c>
+      <c r="F59" s="8">
+        <v>37</v>
+      </c>
+      <c r="G59" s="10">
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>580</v>
+        <v>471</v>
       </c>
       <c r="D60" s="9">
-        <v>330236</v>
-      </c>
-      <c r="E60" s="8">
-        <v>17085</v>
-      </c>
-      <c r="F60" s="8">
-        <v>51</v>
-      </c>
-      <c r="G60" s="10">
-        <v>123</v>
+        <v>124990</v>
+      </c>
+      <c r="E60" s="11">
+        <v>15317</v>
+      </c>
+      <c r="F60" s="11">
+        <v>52</v>
+      </c>
+      <c r="G60" s="12">
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>583</v>
+        <v>456</v>
       </c>
       <c r="D61" s="9">
-        <v>289603</v>
-      </c>
-      <c r="E61" s="11">
-        <v>12292</v>
-      </c>
-      <c r="F61" s="11">
-        <v>60</v>
-      </c>
-      <c r="G61" s="12">
-        <v>142</v>
+        <v>19004</v>
+      </c>
+      <c r="E61" s="8">
+        <v>5222</v>
+      </c>
+      <c r="F61" s="8">
+        <v>23</v>
+      </c>
+      <c r="G61" s="10">
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>674</v>
+        <v>301</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>692</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="D62" s="9">
-        <v>301279</v>
+        <v>355142</v>
       </c>
       <c r="E62" s="8">
-        <v>12372</v>
+        <v>9405</v>
       </c>
       <c r="F62" s="8">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G62" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>193</v>
+        <v>343</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="D63" s="9">
-        <v>804211</v>
-      </c>
-      <c r="E63" s="8">
-        <v>22809</v>
-      </c>
-      <c r="F63" s="8">
-        <v>75</v>
-      </c>
-      <c r="G63" s="10">
-        <v>140</v>
+        <v>132924</v>
+      </c>
+      <c r="E63" s="11">
+        <v>7947</v>
+      </c>
+      <c r="F63" s="11">
+        <v>51</v>
+      </c>
+      <c r="G63" s="12">
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>691</v>
+        <v>17</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>692</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D64" s="9">
-        <v>233103</v>
-      </c>
-      <c r="E64" s="8">
-        <v>8485</v>
-      </c>
-      <c r="F64" s="8">
-        <v>75</v>
-      </c>
-      <c r="G64" s="10">
-        <v>179</v>
+        <v>50409</v>
+      </c>
+      <c r="E64" s="11">
+        <v>4440</v>
+      </c>
+      <c r="F64" s="11">
+        <v>70</v>
+      </c>
+      <c r="G64" s="12">
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>692</v>
+        <v>347</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>691</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D65" s="9">
-        <v>50409</v>
-      </c>
-      <c r="E65" s="11">
-        <v>4440</v>
-      </c>
-      <c r="F65" s="11">
-        <v>70</v>
-      </c>
-      <c r="G65" s="12">
-        <v>105</v>
+        <v>233103</v>
+      </c>
+      <c r="E65" s="8">
+        <v>8485</v>
+      </c>
+      <c r="F65" s="8">
+        <v>75</v>
+      </c>
+      <c r="G65" s="10">
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>692</v>
+        <v>189</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>693</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="D66" s="9">
-        <v>355142</v>
-      </c>
-      <c r="E66" s="8">
-        <v>9405</v>
-      </c>
-      <c r="F66" s="8">
-        <v>44</v>
-      </c>
-      <c r="G66" s="10">
-        <v>151</v>
+        <v>430649</v>
+      </c>
+      <c r="E66" s="11">
+        <v>11283</v>
+      </c>
+      <c r="F66" s="11">
+        <v>84</v>
+      </c>
+      <c r="G66" s="12">
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D67" s="9">
-        <v>132924</v>
+        <v>76355</v>
       </c>
       <c r="E67" s="11">
-        <v>7947</v>
+        <v>964</v>
       </c>
       <c r="F67" s="11">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G67" s="12">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D68" s="9">
+        <v>361204</v>
+      </c>
+      <c r="E68" s="8">
+        <v>10569</v>
+      </c>
+      <c r="F68" s="8">
+        <v>75</v>
+      </c>
+      <c r="G68" s="10">
         <v>191</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="D68" s="9">
-        <v>76355</v>
-      </c>
-      <c r="E68" s="11">
-        <v>964</v>
-      </c>
-      <c r="F68" s="11">
-        <v>20</v>
-      </c>
-      <c r="G68" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>594</v>
+        <v>635</v>
       </c>
       <c r="D69" s="9">
-        <v>430649</v>
+        <v>237534</v>
       </c>
       <c r="E69" s="11">
-        <v>11283</v>
+        <v>8826</v>
       </c>
       <c r="F69" s="11">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G69" s="12">
-        <v>169</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B70" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>694</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D70" s="9">
-        <v>361204</v>
-      </c>
-      <c r="E70" s="8">
-        <v>10569</v>
-      </c>
-      <c r="F70" s="8">
-        <v>75</v>
-      </c>
-      <c r="G70" s="10">
-        <v>191</v>
+        <v>71687</v>
+      </c>
+      <c r="E70" s="11">
+        <v>9647</v>
+      </c>
+      <c r="F70" s="11">
+        <v>42</v>
+      </c>
+      <c r="G70" s="12">
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>694</v>
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>695</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>510</v>
+        <v>627</v>
       </c>
       <c r="D71" s="9">
-        <v>71687</v>
-      </c>
-      <c r="E71" s="11">
-        <v>9647</v>
-      </c>
-      <c r="F71" s="11">
-        <v>42</v>
-      </c>
-      <c r="G71" s="12">
-        <v>69</v>
+        <v>380597</v>
+      </c>
+      <c r="E71" s="8">
+        <v>12833</v>
+      </c>
+      <c r="F71" s="8">
+        <v>56</v>
+      </c>
+      <c r="G71" s="10">
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>694</v>
+        <v>145</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>695</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="D72" s="9">
-        <v>237534</v>
-      </c>
-      <c r="E72" s="11">
-        <v>8826</v>
-      </c>
-      <c r="F72" s="11">
-        <v>47</v>
-      </c>
-      <c r="G72" s="12">
-        <v>120</v>
+        <v>259674</v>
+      </c>
+      <c r="E72" s="8">
+        <v>9120</v>
+      </c>
+      <c r="F72" s="8">
+        <v>54</v>
+      </c>
+      <c r="G72" s="10">
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>695</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>445</v>
+        <v>572</v>
       </c>
       <c r="D73" s="9">
-        <v>192089</v>
-      </c>
-      <c r="E73" s="8">
-        <v>5982</v>
-      </c>
-      <c r="F73" s="8">
-        <v>22</v>
-      </c>
-      <c r="G73" s="10">
-        <v>165</v>
+        <v>201104</v>
+      </c>
+      <c r="E73" s="11">
+        <v>8030</v>
+      </c>
+      <c r="F73" s="11">
+        <v>54</v>
+      </c>
+      <c r="G73" s="12">
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>695</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="D74" s="9">
-        <v>69395</v>
+        <v>192089</v>
       </c>
       <c r="E74" s="8">
-        <v>4609</v>
+        <v>5982</v>
       </c>
       <c r="F74" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G74" s="10">
-        <v>77</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>695</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D75" s="9">
-        <v>201104</v>
-      </c>
-      <c r="E75" s="11">
-        <v>8030</v>
-      </c>
-      <c r="F75" s="11">
-        <v>54</v>
-      </c>
-      <c r="G75" s="12">
-        <v>160</v>
+        <v>177636</v>
+      </c>
+      <c r="E75" s="8">
+        <v>7291</v>
+      </c>
+      <c r="F75" s="8">
+        <v>891</v>
+      </c>
+      <c r="G75" s="10">
+        <v>934</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>695</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>573</v>
+        <v>479</v>
       </c>
       <c r="D76" s="9">
-        <v>177636</v>
+        <v>69395</v>
       </c>
       <c r="E76" s="8">
-        <v>7291</v>
+        <v>4609</v>
       </c>
       <c r="F76" s="8">
-        <v>891</v>
+        <v>11</v>
       </c>
       <c r="G76" s="10">
-        <v>934</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
       <c r="D77" s="9">
-        <v>259674</v>
+        <v>598538</v>
       </c>
       <c r="E77" s="8">
-        <v>9120</v>
+        <v>10568</v>
       </c>
       <c r="F77" s="8">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G77" s="10">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>695</v>
+        <v>72</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D78" s="9">
-        <v>380597</v>
-      </c>
-      <c r="E78" s="8">
-        <v>12833</v>
-      </c>
-      <c r="F78" s="8">
-        <v>56</v>
-      </c>
-      <c r="G78" s="10">
-        <v>156</v>
+        <v>271417</v>
+      </c>
+      <c r="E78" s="11">
+        <v>6666</v>
+      </c>
+      <c r="F78" s="11">
+        <v>76</v>
+      </c>
+      <c r="G78" s="12">
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>571</v>
+        <v>499</v>
       </c>
       <c r="D79" s="9">
-        <v>598538</v>
+        <v>463345</v>
       </c>
       <c r="E79" s="8">
-        <v>10568</v>
+        <v>9605</v>
       </c>
       <c r="F79" s="8">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G79" s="10">
         <v>177</v>
@@ -9030,94 +10426,94 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>679</v>
+        <v>289</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>678</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>631</v>
+        <v>500</v>
       </c>
       <c r="D80" s="9">
-        <v>271417</v>
-      </c>
-      <c r="E80" s="11">
-        <v>6666</v>
-      </c>
-      <c r="F80" s="11">
-        <v>76</v>
-      </c>
-      <c r="G80" s="12">
-        <v>168</v>
+        <v>417921</v>
+      </c>
+      <c r="E80" s="8">
+        <v>11017</v>
+      </c>
+      <c r="F80" s="8">
+        <v>56</v>
+      </c>
+      <c r="G80" s="10">
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>678</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>499</v>
+        <v>589</v>
       </c>
       <c r="D81" s="9">
-        <v>463345</v>
+        <v>191458</v>
       </c>
       <c r="E81" s="8">
-        <v>9605</v>
+        <v>1902</v>
       </c>
       <c r="F81" s="8">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G81" s="10">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>678</v>
+        <v>211</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>675</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="D82" s="9">
-        <v>417921</v>
+        <v>853539</v>
       </c>
       <c r="E82" s="8">
-        <v>11017</v>
+        <v>17598</v>
       </c>
       <c r="F82" s="8">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="G82" s="10">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>678</v>
+        <v>235</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>675</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="D83" s="9">
-        <v>191458</v>
-      </c>
-      <c r="E83" s="8">
-        <v>1902</v>
-      </c>
-      <c r="F83" s="8">
-        <v>29</v>
-      </c>
-      <c r="G83" s="10">
-        <v>66</v>
+        <v>359084</v>
+      </c>
+      <c r="E83" s="11">
+        <v>19063</v>
+      </c>
+      <c r="F83" s="11">
+        <v>50</v>
+      </c>
+      <c r="G83" s="12">
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -9142,60 +10538,6 @@
       <c r="G84" s="12">
         <v>147</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="D85" s="9">
-        <v>853539</v>
-      </c>
-      <c r="E85" s="8">
-        <v>17598</v>
-      </c>
-      <c r="F85" s="8">
-        <v>95</v>
-      </c>
-      <c r="G85" s="10">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D86" s="9">
-        <v>359084</v>
-      </c>
-      <c r="E86" s="11">
-        <v>19063</v>
-      </c>
-      <c r="F86" s="11">
-        <v>50</v>
-      </c>
-      <c r="G86" s="12">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9210,7 +10552,7 @@
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H131" sqref="H131"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11325,4 +12667,1551 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B2" s="18">
+        <v>114.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45879</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1013989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="18">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5586</v>
+      </c>
+      <c r="D3" s="17">
+        <v>92786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" s="18">
+        <v>125</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4541</v>
+      </c>
+      <c r="D4" s="17">
+        <v>106273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" s="18">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5557</v>
+      </c>
+      <c r="D5" s="17">
+        <v>112929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" s="18">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15419</v>
+      </c>
+      <c r="D6" s="17">
+        <v>415461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="B7" s="18">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14776</v>
+      </c>
+      <c r="D7" s="17">
+        <v>286540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B8" s="18">
+        <v>138.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16075</v>
+      </c>
+      <c r="D8" s="17">
+        <v>322838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="B9" s="18">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9973</v>
+      </c>
+      <c r="D9" s="17">
+        <v>123026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="18">
+        <v>167</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6102</v>
+      </c>
+      <c r="D10" s="17">
+        <v>199812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="B11" s="18">
+        <v>138</v>
+      </c>
+      <c r="C11" s="2">
+        <v>32986</v>
+      </c>
+      <c r="D11" s="17">
+        <v>612625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" s="18">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18019</v>
+      </c>
+      <c r="D12" s="17">
+        <v>348059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="18">
+        <v>161</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8269</v>
+      </c>
+      <c r="D13" s="17">
+        <v>106418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="18">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6698</v>
+      </c>
+      <c r="D14" s="17">
+        <v>158148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="B15" s="18">
+        <v>142.25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>28943</v>
+      </c>
+      <c r="D15" s="17">
+        <v>581118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="B16" s="18">
+        <v>189</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7018</v>
+      </c>
+      <c r="D16" s="17">
+        <v>425169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B17" s="18">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7026</v>
+      </c>
+      <c r="D17" s="17">
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" s="18">
+        <v>140</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10487</v>
+      </c>
+      <c r="D18" s="17">
+        <v>67807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B19" s="18">
+        <v>176</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4412</v>
+      </c>
+      <c r="D19" s="17">
+        <v>83389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="B20" s="18">
+        <v>113.66666666666667</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16517</v>
+      </c>
+      <c r="D20" s="17">
+        <v>315661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="B21" s="18">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3554</v>
+      </c>
+      <c r="D21" s="17">
+        <v>95588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="B22" s="18">
+        <v>140</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4347</v>
+      </c>
+      <c r="D22" s="17">
+        <v>107142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="B23" s="18">
+        <v>148</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8616</v>
+      </c>
+      <c r="D23" s="17">
+        <v>112931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="B24" s="18">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2">
+        <v>14027</v>
+      </c>
+      <c r="D24" s="17">
+        <v>435191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="B25" s="18">
+        <v>134</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6647</v>
+      </c>
+      <c r="D25" s="17">
+        <v>208058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="B26" s="18">
+        <v>134</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7380</v>
+      </c>
+      <c r="D26" s="17">
+        <v>227133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B27" s="18">
+        <v>150</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15754</v>
+      </c>
+      <c r="D27" s="17">
+        <v>662136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="B28" s="18">
+        <v>150</v>
+      </c>
+      <c r="C28" s="2">
+        <v>15754</v>
+      </c>
+      <c r="D28" s="17">
+        <v>662136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="B29" s="18">
+        <v>131.33333333333334</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20471</v>
+      </c>
+      <c r="D29" s="17">
+        <v>752454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="B30" s="18">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6532</v>
+      </c>
+      <c r="D30" s="17">
+        <v>117507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="B31" s="18">
+        <v>159</v>
+      </c>
+      <c r="C31" s="2">
+        <v>7797</v>
+      </c>
+      <c r="D31" s="17">
+        <v>359326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B32" s="18">
+        <v>168</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6142</v>
+      </c>
+      <c r="D32" s="17">
+        <v>275621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B33" s="18">
+        <v>107</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10459</v>
+      </c>
+      <c r="D33" s="17">
+        <v>417778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="B34" s="18">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10459</v>
+      </c>
+      <c r="D34" s="17">
+        <v>417778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="B35" s="18">
+        <v>156.75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20007</v>
+      </c>
+      <c r="D35" s="17">
+        <v>550420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="B36" s="18">
+        <v>159</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3613</v>
+      </c>
+      <c r="D36" s="17">
+        <v>88181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B37" s="18">
+        <v>156</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6562</v>
+      </c>
+      <c r="D37" s="17">
+        <v>198864</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="B38" s="18">
+        <v>148</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4579</v>
+      </c>
+      <c r="D38" s="17">
+        <v>131958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B39" s="18">
+        <v>164</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5253</v>
+      </c>
+      <c r="D39" s="17">
+        <v>131417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="B40" s="18">
+        <v>157.33333333333334</v>
+      </c>
+      <c r="C40" s="2">
+        <v>23148</v>
+      </c>
+      <c r="D40" s="17">
+        <v>381827</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" s="18">
+        <v>150</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6953</v>
+      </c>
+      <c r="D41" s="17">
+        <v>15111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="B42" s="18">
+        <v>166</v>
+      </c>
+      <c r="C42" s="2">
+        <v>7383</v>
+      </c>
+      <c r="D42" s="17">
+        <v>213254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="B43" s="18">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8812</v>
+      </c>
+      <c r="D43" s="17">
+        <v>153462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="B44" s="18">
+        <v>133</v>
+      </c>
+      <c r="C44" s="2">
+        <v>65580</v>
+      </c>
+      <c r="D44" s="17">
+        <v>1183316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="B45" s="18">
+        <v>133</v>
+      </c>
+      <c r="C45" s="2">
+        <v>22536</v>
+      </c>
+      <c r="D45" s="17">
+        <v>443870</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B46" s="18">
+        <v>137</v>
+      </c>
+      <c r="C46" s="2">
+        <v>26163</v>
+      </c>
+      <c r="D46" s="17">
+        <v>498778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="B47" s="18">
+        <v>123</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9340</v>
+      </c>
+      <c r="D47" s="17">
+        <v>90468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B48" s="18">
+        <v>139</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7541</v>
+      </c>
+      <c r="D48" s="17">
+        <v>150200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="B49" s="18">
+        <v>146.4</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43168</v>
+      </c>
+      <c r="D49" s="17">
+        <v>937205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="B50" s="18">
+        <v>155</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5754</v>
+      </c>
+      <c r="D50" s="17">
+        <v>120944</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B51" s="18">
+        <v>163</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10773</v>
+      </c>
+      <c r="D51" s="17">
+        <v>299072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B52" s="18">
+        <v>153</v>
+      </c>
+      <c r="C52" s="2">
+        <v>6388</v>
+      </c>
+      <c r="D52" s="17">
+        <v>90204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="B53" s="18">
+        <v>131</v>
+      </c>
+      <c r="C53" s="2">
+        <v>9153</v>
+      </c>
+      <c r="D53" s="17">
+        <v>199423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="B54" s="18">
+        <v>130</v>
+      </c>
+      <c r="C54" s="2">
+        <v>11100</v>
+      </c>
+      <c r="D54" s="17">
+        <v>227562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="B55" s="18">
+        <v>167.33333333333334</v>
+      </c>
+      <c r="C55" s="2">
+        <v>36179</v>
+      </c>
+      <c r="D55" s="17">
+        <v>784628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B56" s="18">
+        <v>187</v>
+      </c>
+      <c r="C56" s="2">
+        <v>8196</v>
+      </c>
+      <c r="D56" s="17">
+        <v>125713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="B57" s="18">
+        <v>143</v>
+      </c>
+      <c r="C57" s="2">
+        <v>17173</v>
+      </c>
+      <c r="D57" s="17">
+        <v>369912</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="B58" s="18">
+        <v>172</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10810</v>
+      </c>
+      <c r="D58" s="17">
+        <v>289003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="B59" s="18">
+        <v>127</v>
+      </c>
+      <c r="C59" s="2">
+        <v>14886</v>
+      </c>
+      <c r="D59" s="17">
+        <v>310031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="B60" s="18">
+        <v>127</v>
+      </c>
+      <c r="C60" s="2">
+        <v>14886</v>
+      </c>
+      <c r="D60" s="17">
+        <v>310031</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="B61" s="18">
+        <v>125.5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>33920</v>
+      </c>
+      <c r="D61" s="17">
+        <v>979989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B62" s="18">
+        <v>140</v>
+      </c>
+      <c r="C62" s="2">
+        <v>12244</v>
+      </c>
+      <c r="D62" s="17">
+        <v>344787</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="B63" s="18">
+        <v>111</v>
+      </c>
+      <c r="C63" s="2">
+        <v>21676</v>
+      </c>
+      <c r="D63" s="17">
+        <v>635202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="B64" s="18">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2">
+        <v>180625</v>
+      </c>
+      <c r="D64" s="17">
+        <v>3961058</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B65" s="18">
+        <v>186</v>
+      </c>
+      <c r="C65" s="2">
+        <v>19282</v>
+      </c>
+      <c r="D65" s="17">
+        <v>406283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B66" s="18">
+        <v>142</v>
+      </c>
+      <c r="C66" s="2">
+        <v>12292</v>
+      </c>
+      <c r="D66" s="17">
+        <v>289603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="B67" s="18">
+        <v>106</v>
+      </c>
+      <c r="C67" s="2">
+        <v>15317</v>
+      </c>
+      <c r="D67" s="17">
+        <v>124990</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B68" s="18">
+        <v>144</v>
+      </c>
+      <c r="C68" s="2">
+        <v>12372</v>
+      </c>
+      <c r="D68" s="17">
+        <v>301279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="B69" s="18">
+        <v>140</v>
+      </c>
+      <c r="C69" s="2">
+        <v>22809</v>
+      </c>
+      <c r="D69" s="17">
+        <v>804211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B70" s="18">
+        <v>192</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9485</v>
+      </c>
+      <c r="D70" s="17">
+        <v>178839</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="B71" s="18">
+        <v>31</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5222</v>
+      </c>
+      <c r="D71" s="17">
+        <v>19004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B72" s="18">
+        <v>174</v>
+      </c>
+      <c r="C72" s="2">
+        <v>14909</v>
+      </c>
+      <c r="D72" s="17">
+        <v>146076</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B73" s="18">
+        <v>123</v>
+      </c>
+      <c r="C73" s="2">
+        <v>17085</v>
+      </c>
+      <c r="D73" s="17">
+        <v>330236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="B74" s="18">
+        <v>163</v>
+      </c>
+      <c r="C74" s="2">
+        <v>8289</v>
+      </c>
+      <c r="D74" s="17">
+        <v>464745</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="B75" s="18">
+        <v>178</v>
+      </c>
+      <c r="C75" s="2">
+        <v>13447</v>
+      </c>
+      <c r="D75" s="17">
+        <v>427976</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B76" s="18">
+        <v>179</v>
+      </c>
+      <c r="C76" s="2">
+        <v>7054</v>
+      </c>
+      <c r="D76" s="17">
+        <v>160964</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="B77" s="18">
+        <v>177</v>
+      </c>
+      <c r="C77" s="2">
+        <v>17903</v>
+      </c>
+      <c r="D77" s="17">
+        <v>173528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="B78" s="18">
+        <v>207</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5159</v>
+      </c>
+      <c r="D78" s="17">
+        <v>133324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="B79" s="18">
+        <v>126</v>
+      </c>
+      <c r="C79" s="2">
+        <v>21792</v>
+      </c>
+      <c r="D79" s="17">
+        <v>538475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="B80" s="18">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4440</v>
+      </c>
+      <c r="D80" s="17">
+        <v>50409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="B81" s="18">
+        <v>151</v>
+      </c>
+      <c r="C81" s="2">
+        <v>9405</v>
+      </c>
+      <c r="D81" s="17">
+        <v>355142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="B82" s="18">
+        <v>122</v>
+      </c>
+      <c r="C82" s="2">
+        <v>7947</v>
+      </c>
+      <c r="D82" s="17">
+        <v>132924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="B83" s="18">
+        <v>179</v>
+      </c>
+      <c r="C83" s="2">
+        <v>8485</v>
+      </c>
+      <c r="D83" s="17">
+        <v>233103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="B84" s="18">
+        <v>179</v>
+      </c>
+      <c r="C84" s="2">
+        <v>8485</v>
+      </c>
+      <c r="D84" s="17">
+        <v>233103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="B85" s="18">
+        <v>104.5</v>
+      </c>
+      <c r="C85" s="2">
+        <v>12247</v>
+      </c>
+      <c r="D85" s="17">
+        <v>507004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B86" s="18">
+        <v>169</v>
+      </c>
+      <c r="C86" s="2">
+        <v>11283</v>
+      </c>
+      <c r="D86" s="17">
+        <v>430649</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="B87" s="18">
+        <v>40</v>
+      </c>
+      <c r="C87" s="2">
+        <v>964</v>
+      </c>
+      <c r="D87" s="17">
+        <v>76355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="B88" s="18">
+        <v>126.66666666666667</v>
+      </c>
+      <c r="C88" s="2">
+        <v>29042</v>
+      </c>
+      <c r="D88" s="17">
+        <v>670425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="B89" s="18">
+        <v>69</v>
+      </c>
+      <c r="C89" s="2">
+        <v>9647</v>
+      </c>
+      <c r="D89" s="17">
+        <v>71687</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B90" s="18">
+        <v>120</v>
+      </c>
+      <c r="C90" s="2">
+        <v>8826</v>
+      </c>
+      <c r="D90" s="17">
+        <v>237534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="B91" s="18">
+        <v>191</v>
+      </c>
+      <c r="C91" s="2">
+        <v>10569</v>
+      </c>
+      <c r="D91" s="17">
+        <v>361204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="B92" s="18">
+        <v>273.83333333333331</v>
+      </c>
+      <c r="C92" s="2">
+        <v>47865</v>
+      </c>
+      <c r="D92" s="17">
+        <v>1280495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="B93" s="18">
+        <v>160</v>
+      </c>
+      <c r="C93" s="2">
+        <v>8030</v>
+      </c>
+      <c r="D93" s="17">
+        <v>201104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="B94" s="18">
+        <v>156</v>
+      </c>
+      <c r="C94" s="2">
+        <v>12833</v>
+      </c>
+      <c r="D94" s="17">
+        <v>380597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B95" s="18">
+        <v>151</v>
+      </c>
+      <c r="C95" s="2">
+        <v>9120</v>
+      </c>
+      <c r="D95" s="17">
+        <v>259674</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B96" s="18">
+        <v>165</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5982</v>
+      </c>
+      <c r="D96" s="17">
+        <v>192089</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="B97" s="18">
+        <v>77</v>
+      </c>
+      <c r="C97" s="2">
+        <v>4609</v>
+      </c>
+      <c r="D97" s="17">
+        <v>69395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="B98" s="18">
+        <v>934</v>
+      </c>
+      <c r="C98" s="2">
+        <v>7291</v>
+      </c>
+      <c r="D98" s="17">
+        <v>177636</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="B99" s="18">
+        <v>172.5</v>
+      </c>
+      <c r="C99" s="2">
+        <v>17234</v>
+      </c>
+      <c r="D99" s="17">
+        <v>869955</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B100" s="18">
+        <v>168</v>
+      </c>
+      <c r="C100" s="2">
+        <v>6666</v>
+      </c>
+      <c r="D100" s="17">
+        <v>271417</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="B101" s="18">
+        <v>177</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10568</v>
+      </c>
+      <c r="D101" s="17">
+        <v>598538</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="B102" s="18">
+        <v>127.66666666666667</v>
+      </c>
+      <c r="C102" s="2">
+        <v>22524</v>
+      </c>
+      <c r="D102" s="17">
+        <v>1072724</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="B103" s="18">
+        <v>66</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1902</v>
+      </c>
+      <c r="D103" s="17">
+        <v>191458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B104" s="18">
+        <v>140</v>
+      </c>
+      <c r="C104" s="2">
+        <v>11017</v>
+      </c>
+      <c r="D104" s="17">
+        <v>417921</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="B105" s="18">
+        <v>177</v>
+      </c>
+      <c r="C105" s="2">
+        <v>9605</v>
+      </c>
+      <c r="D105" s="17">
+        <v>463345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="B106" s="18">
+        <v>150.66666666666666</v>
+      </c>
+      <c r="C106" s="2">
+        <v>41011</v>
+      </c>
+      <c r="D106" s="17">
+        <v>1329712</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B107" s="18">
+        <v>147</v>
+      </c>
+      <c r="C107" s="2">
+        <v>4350</v>
+      </c>
+      <c r="D107" s="17">
+        <v>117089</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B108" s="18">
+        <v>174</v>
+      </c>
+      <c r="C108" s="2">
+        <v>17598</v>
+      </c>
+      <c r="D108" s="17">
+        <v>853539</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B109" s="18">
+        <v>131</v>
+      </c>
+      <c r="C109" s="2">
+        <v>19063</v>
+      </c>
+      <c r="D109" s="17">
+        <v>359084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>